--- a/trend_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
+++ b/trend_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.306715686477583</v>
+        <v>0.693284313522417</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.719834747185534</v>
+        <v>0.280165252814466</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.262896442163179</v>
+        <v>0.737103557836821</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.794154670250746</v>
+        <v>0.205845329749254</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.04320536648685</v>
+        <v>6.2542538150916e-07</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.716417910447761</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.413</v>
+        <v>22.25</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0517153183203281</v>
+        <v>2.00582279243702</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0971992487477769</v>
+        <v>1.13280856486123</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0214343153167068</v>
+        <v>3.00981503373275</v>
       </c>
       <c r="N30" t="n">
-        <v>-12.5218688426945</v>
+        <v>9.01493389859333</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.110335680959923</v>
+        <v>0.746846088773271</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.552</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>101</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.50430456509438</v>
+        <v>0.0067718091334894</v>
       </c>
       <c r="L31" t="n">
-        <v>-8.10285965945539</v>
+        <v>-0.013835904822003</v>
       </c>
       <c r="M31" t="n">
-        <v>0.441703487145452</v>
+        <v>0.0369517530267827</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.47950947039047</v>
+        <v>0.846476141686182</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.0088633828125239</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.088</v>
+        <v>10.16</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0851597590484314</v>
+        <v>-0.0332347588717014</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9488939727226759</v>
+        <v>-0.0611661554206003</v>
       </c>
       <c r="M32" t="n">
-        <v>0.311750525155839</v>
+        <v>-0.0124462646705227</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.67373740268143</v>
+        <v>-0.327113768422258</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.036819135060151</v>
+        <v>0.680075556914148</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0229885057471264</v>
       </c>
       <c r="H33" t="n">
+        <v>0.218390804597701</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.4545</v>
+        <v>0.019</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0165467467315293</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.04780218187432</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0010197259611784</v>
+        <v>9.99835721979524e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.64064834577103</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.002103775642746</v>
+        <v>0.9994363022535721</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.729885057471264</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>107.215</v>
+        <v>152.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.58513091216216</v>
+        <v>-8.930317848410761</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.59025565838468</v>
+        <v>-14.1072097102244</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.85707855422962</v>
+        <v>-4.47069250101245</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.41116533336022</v>
+        <v>-5.85594613010541</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0.830575998701549</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.552325581395349</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J35" t="n">
-        <v>5.159</v>
+        <v>0.0071178618456263</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0202261190586064</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.16850159935498</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.08770790156102749</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.392055031180585</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.783754927150712</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.30718954248366</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.104575163398693</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.999863248454405</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.134615384615385</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3915</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0093820701304411</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0143983110135689</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0036897701102724</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-2.39644192348432</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9993198459128489</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.479768786127168</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.013994252873563</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0063104545197102</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0199925552051017</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.172131031655142</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.99986963692777</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0402298850574713</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4115</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0075017115472387</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0129470830294751</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0030055420171325</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.82301617186846</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.999999129156254</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.695402298850575</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0139980837667671</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0220406629978717</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.008612270219311401</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-2.15355134873339</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.933282667139164</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.425287356321839</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0004969387755102</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0009972353690167</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.5775834143181</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.996478285286124</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.919540229885057</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0816534896401309</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.15515240618654</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0317818220891031</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.77732957959629</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0517153183203281</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0971992487477769</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0214343153167068</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-12.5218688426945</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>101</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-2.50430456509438</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-8.10285965945539</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.441703487145452</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-2.47950947039047</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.088</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0851597590484314</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.9488939727226759</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.311750525155839</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.67373740268143</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0165467467315293</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.04780218187432</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0010197259611784</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-3.64064834577103</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.002103775642746</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>107.215</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-2.58513091216216</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3.59025565838468</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.85707855422962</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-2.41116533336022</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.159</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0202261190586064</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.16850159935498</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.08770790156102749</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.392055031180585</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.114219904494338</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>107.215</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.67009602194787</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.97883360354819</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.51340368965807</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.5577074308146</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
+++ b/trend_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.348140825498292</v>
+        <v>0.26094988910842</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.5</v>
+        <v>43.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.82434469200524</v>
+        <v>3.43343055522541</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.4339166850418</v>
+        <v>-5.8406175597531</v>
       </c>
       <c r="M2" t="n">
-        <v>12.0759027692342</v>
+        <v>14.5856936961017</v>
       </c>
       <c r="N2" t="n">
-        <v>6.07385955269945</v>
+        <v>7.84784126908665</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.999872334295683</v>
+        <v>0.036717316916924</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0545454545454545</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="H3" t="n">
-        <v>0.654545454545455</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.401373626373626</v>
+        <v>-0.207554655711538</v>
       </c>
       <c r="L3" t="n">
-        <v>0.23877776458162</v>
+        <v>-0.427768164127418</v>
       </c>
       <c r="M3" t="n">
-        <v>0.546233209664154</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>33.4478021978022</v>
+        <v>-15.9657427470414</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,17 +751,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.693284313522417</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.949152542372881</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.07</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0274749803767668</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0605651121337948</v>
+        <v>-0.111157021286398</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0831143435148305</v>
+        <v>0.117087106615637</v>
       </c>
       <c r="N4" t="n">
-        <v>0.272839924297585</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.791807596825702</v>
+        <v>0.0018252172022209</v>
       </c>
       <c r="G5" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.517241379310345</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.018</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.000648181011535</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.001987154310669</v>
+        <v>0.0014691853821466</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008468961288864</v>
+        <v>0.0030779722168595</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.60100561963916</v>
+        <v>11.1492673992674</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.833103226675124</v>
+        <v>0.328919097166346</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.758620689655172</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>98</v>
+        <v>113.5</v>
       </c>
       <c r="K6" t="n">
-        <v>-10.6949866903283</v>
+        <v>5.11733800350263</v>
       </c>
       <c r="L6" t="n">
-        <v>-39.9724126737404</v>
+        <v>-16.4009627310783</v>
       </c>
       <c r="M6" t="n">
-        <v>5.79933689061134</v>
+        <v>25.4205855017092</v>
       </c>
       <c r="N6" t="n">
-        <v>-10.9132517248248</v>
+        <v>4.50866784449571</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.200060265375877</v>
+        <v>0.253340437533195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.517241379310345</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="H7" t="n">
-        <v>0.637931034482759</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008722028180159</v>
+        <v>0.0102313749603842</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0001569718084618</v>
+        <v>-8.83385319534693e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009104176081278</v>
+        <v>0.0003248945423633</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1115,14 +1115,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.979905061889934</v>
+        <v>0.918959397199258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.327586206896552</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H8" t="n">
         <v>0.137931034482759</v>
@@ -1134,16 +1134,16 @@
         <v>0.003</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0002608928571428</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0006385075220176</v>
+        <v>-0.0004920252186774</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-8.696428571428569</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.923759751718343</v>
+        <v>0.0298729638864803</v>
       </c>
       <c r="G9" t="n">
         <v>0.137931034482759</v>
       </c>
       <c r="H9" t="n">
-        <v>0.758620689655172</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3475</v>
+        <v>0.397</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0075257554945054</v>
+        <v>0.0230339444390196</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0243370439556933</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0497729722542319</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.16568503439007</v>
+        <v>5.80200111814096</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.280165252814466</v>
+        <v>0.0021236269723909</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.17</v>
+        <v>8.16</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.008600863422291801</v>
+        <v>-0.0477971646673941</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.040137362637362</v>
+        <v>-0.0767402911843631</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0186352040816324</v>
+        <v>-0.020866442174209</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.105273726099043</v>
+        <v>-0.585749567002378</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.792570939926879</v>
+        <v>0.0226760957164045</v>
       </c>
       <c r="G11" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H11" t="n">
-        <v>0.896551724137931</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.38</v>
+        <v>0.4105</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0045154532967033</v>
+        <v>0.0236045918367347</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0242714400507715</v>
+        <v>0.0027115181222005</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0035409788466946</v>
+        <v>0.0563574220828746</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.18827718334297</v>
+        <v>5.75020507594023</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.986344857103578</v>
+        <v>0.06856179089972129</v>
       </c>
       <c r="G12" t="n">
-        <v>0.344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.396551724137931</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>0.605</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.668956043956044</v>
+        <v>0.0575377361402642</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.87440590193175</v>
+        <v>-0.0003180980696373</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.110630943994623</v>
       </c>
       <c r="N12" t="n">
-        <v>-26.7582417582418</v>
+        <v>9.51036960996103</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9942512012708929</v>
+        <v>0.0030475358057765</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.741379310344828</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.029</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0300071524812767</v>
+        <v>0.0057176809040016</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0711049588559374</v>
+        <v>0.0026109542122253</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009894925766182699</v>
+        <v>0.008180712663911901</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.31100043916402</v>
+        <v>19.7161410482816</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.921691774420656</v>
+        <v>0.0607942317438832</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.655172413793103</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.029</v>
+        <v>2.825</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0025509523809523</v>
+        <v>0.392719607694937</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0057932571355417</v>
+        <v>-0.0350033909935179</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003163297981366</v>
+        <v>1.49981102565418</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.79638752052545</v>
+        <v>13.9015790334491</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.983737909367336</v>
+        <v>0.0675865317707193</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.896551724137931</v>
+        <v>0.741176470588235</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.165</v>
+        <v>32.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.39784760981211</v>
+        <v>1.17817220200182</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.17051134112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.118269324053927</v>
+        <v>2.91450002642797</v>
       </c>
       <c r="N15" t="n">
-        <v>-18.3763330167256</v>
+        <v>3.62514523692868</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.999092913012852</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0082916543242197</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.739583333333333</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>28.25</v>
+        <v>0.4575</v>
       </c>
       <c r="K16" t="n">
-        <v>1.78350117563655</v>
+        <v>0.103780284657687</v>
       </c>
       <c r="L16" t="n">
-        <v>0.295369286137728</v>
+        <v>0.0343739346190591</v>
       </c>
       <c r="M16" t="n">
-        <v>3.01523892229903</v>
+        <v>0.208197947664217</v>
       </c>
       <c r="N16" t="n">
-        <v>6.31327849782848</v>
+        <v>22.6842152257239</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.999999769991148</v>
+        <v>0.906720965073156</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0384615384615385</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.67948717948718</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.525</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>0.229585714285714</v>
+        <v>0.0245746435560527</v>
       </c>
       <c r="L17" t="n">
-        <v>0.150513266832669</v>
+        <v>-0.0101849023746237</v>
       </c>
       <c r="M17" t="n">
-        <v>0.318879892455876</v>
+        <v>0.0615961446294837</v>
       </c>
       <c r="N17" t="n">
-        <v>43.730612244898</v>
+        <v>0.245746435560527</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.737103557836821</v>
+        <v>0.175815326320456</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8389830508474579</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>10.045</v>
+        <v>0.019</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0150515109890107</v>
+        <v>0.0003090728553913</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0233386581469647</v>
+        <v>-0.000196039440439</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0419827586206898</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="N18" t="n">
-        <v>0.149840826172331</v>
+        <v>1.62669923890196</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0831786548062665</v>
+        <v>0.607256825838166</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.288135593220339</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0185</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003544826883642</v>
+        <v>-1.14930774071743</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-7.99693136904862</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000668956043956</v>
+        <v>5.95760214891226</v>
       </c>
       <c r="N19" t="n">
-        <v>1.91612263980685</v>
+        <v>-0.95775645059786</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8776144742879179</v>
+        <v>0.0151279819130489</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="H20" t="n">
-        <v>0.711864406779661</v>
+        <v>0.543103448275862</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>0.0062884858770171</v>
       </c>
       <c r="K20" t="n">
-        <v>-4.39819376026273</v>
+        <v>9.501479556621601e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>-10.3150204903288</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.73963636940018</v>
+        <v>0.0003707202977791</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.6651614668856</v>
+        <v>0.151093279724888</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0362526715000192</v>
+        <v>0.979714706701257</v>
       </c>
       <c r="G21" t="n">
-        <v>0.632478632478632</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H21" t="n">
-        <v>0.521367521367521</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I21" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0059745569144101</v>
+        <v>0.003</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7563190686421e-05</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0002645926247186</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6287192711449739</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.991112531859382</v>
+        <v>0.478414522136544</v>
       </c>
       <c r="G22" t="n">
-        <v>0.23728813559322</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11864406779661</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.3872</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002496582365003</v>
+        <v>-0.0036441655983642</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0025085851648351</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.924054232658335</v>
+        <v>0.066892369029821</v>
       </c>
       <c r="G23" t="n">
-        <v>0.169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.754237288135593</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.375</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0008771745614422</v>
+        <v>-0.009952316076294401</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.008129444625782601</v>
+        <v>-0.0199726589200274</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.233913216384607</v>
+        <v>-0.122264325261602</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.205845329749254</v>
+        <v>0.325602330215704</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5169491525423729</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>8.16</v>
+        <v>0.401</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0050171703296702</v>
+        <v>0.0008329994050535</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0157810450895843</v>
+        <v>-0.0030350664123406</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0050013681927652</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0614849305106645</v>
+        <v>0.207730524951009</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.879439158047383</v>
+        <v>0.754410500492973</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.822033898305085</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3875</v>
+        <v>0.635</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0014026889326536</v>
+        <v>-0.0025086431493754</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0062415454859729</v>
+        <v>-0.0120434544481312</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0009976146218607001</v>
+        <v>0.0059975369458128</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.361984240684799</v>
+        <v>-0.395061913287467</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.997435486980858</v>
+        <v>0.220881643707711</v>
       </c>
       <c r="G26" t="n">
-        <v>0.194915254237288</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.279661016949153</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>0.0315</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.187918295171555</v>
+        <v>0.0003339437120387</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.40659777366933</v>
+        <v>-0.0004292709303822</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0017926403146508</v>
       </c>
       <c r="N26" t="n">
-        <v>-4.69795737928888</v>
+        <v>1.06013876837701</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.998489364525318</v>
+        <v>0.552522460519809</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.771186440677966</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.595</v>
+        <v>3.36</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.009960119188596199</v>
+        <v>-0.021268961301856</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.022508405211002</v>
+        <v>-0.159267187569548</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0044893535140161</v>
+        <v>0.121115449151473</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.67396961152877</v>
+        <v>-0.633004800650476</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.771245735102265</v>
+        <v>2.04555153665107e-06</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.483050847457627</v>
+        <v>0.718518518518519</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.031</v>
+        <v>22</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0003328784954082</v>
+        <v>1.97918719211823</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0010034272583472</v>
+        <v>1.03056399156279</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0003344727368546</v>
+        <v>2.91241631213953</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.07380159809115</v>
+        <v>8.99630541871921</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.996735517461571</v>
+        <v>0.47251155515577</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="H29" t="n">
-        <v>0.932203389830508</v>
+        <v>0.546875</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.855</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.194153187257387</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.36589189126269</v>
+        <v>-0.0206578303744558</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0668024423384975</v>
+        <v>0.0223896277202624</v>
       </c>
       <c r="N29" t="n">
-        <v>-6.80046190043386</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6.2542538150916e-07</v>
+        <v>0.113037927926663</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.716417910447761</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>22.25</v>
+        <v>10.07</v>
       </c>
       <c r="K30" t="n">
-        <v>2.00582279243702</v>
+        <v>-0.017476076555024</v>
       </c>
       <c r="L30" t="n">
-        <v>1.13280856486123</v>
+        <v>-0.0398477293706483</v>
       </c>
       <c r="M30" t="n">
-        <v>3.00981503373275</v>
+        <v>0.0061858298809723</v>
       </c>
       <c r="N30" t="n">
-        <v>9.01493389859333</v>
+        <v>-0.173545943942641</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.746846088773271</v>
+        <v>0.354177606377672</v>
       </c>
       <c r="G31" t="n">
-        <v>0.048</v>
+        <v>0.0228571428571429</v>
       </c>
       <c r="H31" t="n">
-        <v>0.552</v>
+        <v>0.205714285714286</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8</v>
+        <v>0.019</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0067718091334894</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.013835904822003</v>
+        <v>-0.0001664208541526</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0369517530267827</v>
+        <v>0.0002502624258694</v>
       </c>
       <c r="N31" t="n">
-        <v>0.846476141686182</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0088633828125239</v>
+        <v>0.995937454027113</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.708571428571429</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.16</v>
+        <v>150</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0332347588717014</v>
+        <v>-7.609375</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0611661554206003</v>
+        <v>-12.8012140521274</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0124462646705227</v>
+        <v>-2.94809320940706</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.327113768422258</v>
+        <v>-5.07291666666667</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,28 +3386,28 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.680075556914148</v>
+        <v>0.9415014844758131</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0229885057471264</v>
+        <v>0.531791907514451</v>
       </c>
       <c r="H33" t="n">
-        <v>0.218390804597701</v>
+        <v>0.566473988439306</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J33" t="n">
-        <v>0.019</v>
+        <v>0.007523562322822</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002998768472906</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>9.99835721979524e-05</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9994363022535721</v>
+        <v>0.8310039855638069</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="H34" t="n">
-        <v>0.729885057471264</v>
+        <v>0.096969696969697</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>152.5</v>
+        <v>0.003</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.930317848410761</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-14.1072097102244</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-4.47069250101245</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-5.85594613010541</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.830575998701549</v>
+        <v>0.970478234429496</v>
       </c>
       <c r="G35" t="n">
-        <v>0.552325581395349</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="H35" t="n">
-        <v>0.546511627906977</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0071178618456263</v>
+        <v>0.393</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.003777956674473</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0098948063277506</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-0.961312130909178</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.783754927150712</v>
+        <v>0.944031081067743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.30718954248366</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.104575163398693</v>
+        <v>0.459770114942529</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0060206043956042</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0139592253198854</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.0740541746076786</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.999863248454405</v>
+        <v>0.986751909044288</v>
       </c>
       <c r="G37" t="n">
-        <v>0.134615384615385</v>
+        <v>0.0342857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.75</v>
+        <v>0.845714285714286</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3915</v>
+        <v>0.415</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0093820701304411</v>
+        <v>-0.0050034246575342</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0143983110135689</v>
+        <v>-0.0108039488897063</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0036897701102724</v>
+        <v>-0.0004972964066074</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.39644192348432</v>
+        <v>-1.20564449579139</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9993198459128489</v>
+        <v>0.999608449864877</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.479768786127168</v>
+        <v>0.6914285714285709</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8.130000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="K38" t="n">
-        <v>0.013994252873563</v>
+        <v>-0.009986329460013601</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0063104545197102</v>
+        <v>-0.0169245740363245</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0199925552051017</v>
+        <v>-0.0054462438344511</v>
       </c>
       <c r="N38" t="n">
-        <v>0.172131031655142</v>
+        <v>-1.51308022121419</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.99986963692777</v>
+        <v>0.672371146127443</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0402298850574713</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.833333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4115</v>
+        <v>0.033</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0075017115472387</v>
+        <v>-0.0001661737943585</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0129470830294751</v>
+        <v>-0.0006913713841359</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0030055420171325</v>
+        <v>0.0003228784360222</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.82301617186846</v>
+        <v>-0.503556952601537</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999999129156254</v>
+        <v>0.938720286539692</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.695402298850575</v>
+        <v>0.908571428571429</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.65</v>
+        <v>3.44</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0139980837667671</v>
+        <v>-0.0553546583850931</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0220406629978717</v>
+        <v>-0.127633801929983</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.008612270219311401</v>
+        <v>0.0016070970153432</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.15355134873339</v>
+        <v>-1.60914704607829</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.933282667139164</v>
+        <v>0.121062220556551</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="H41" t="n">
-        <v>0.425287356321839</v>
+        <v>0.5064102564102561</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0315</v>
+        <v>0.8</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0004969387755102</v>
+        <v>-0.0124829118250171</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0009972353690167</v>
+        <v>-0.0333742492031667</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.0030141972404812</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.5775834143181</v>
+        <v>-1.56036397812713</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.996478285286124</v>
+        <v>0.586082098785888</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.019047619047619</v>
       </c>
       <c r="H42" t="n">
-        <v>0.919540229885057</v>
+        <v>0.204761904761905</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.94</v>
+        <v>0.019</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0816534896401309</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.15515240618654</v>
+        <v>-0.0002053408887515</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0317818220891031</v>
+        <v>0.0001113504568045</v>
       </c>
       <c r="N42" t="n">
-        <v>-2.77732957959629</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.04320536648685</v>
+        <v>0.999890792579098</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.70952380952381</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.413</v>
+        <v>177.5</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0517153183203281</v>
+        <v>-8.970166032514699</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0971992487477769</v>
+        <v>-13.4622306158371</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0214343153167068</v>
+        <v>-4.89622031602269</v>
       </c>
       <c r="N43" t="n">
-        <v>-12.5218688426945</v>
+        <v>-5.05361466620547</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4354,7 +4354,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4364,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.110335680959923</v>
+        <v>0.938822495136757</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.526570048309179</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.541062801932367</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
-        <v>101</v>
+        <v>0.008277069981600001</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.50430456509438</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-8.10285965945539</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.441703487145452</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-2.47950947039047</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4441,7 +4445,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4451,46 +4459,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5</v>
+        <v>0.992304584975076</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.119791666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.776041666666667</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5.088</v>
+        <v>0.3985</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0851597590484314</v>
+        <v>-0.0037652625838118</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.9488939727226759</v>
+        <v>-0.0080832460231526</v>
       </c>
       <c r="M45" t="n">
-        <v>0.311750525155839</v>
+        <v>-0.0006483113905283</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.67373740268143</v>
+        <v>-0.944858866703106</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4528,7 +4536,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4538,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4553,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.036819135060151</v>
+        <v>0.995348621298993</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.8142857142857139</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4545</v>
+        <v>0.418</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0165467467315293</v>
+        <v>-0.0040027397260274</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.04780218187432</v>
+        <v>-0.0074537753557133</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0010197259611784</v>
+        <v>-0.0010166714737662</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.64064834577103</v>
+        <v>-0.957593235891722</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4615,7 +4627,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4625,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4640,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.002103775642746</v>
+        <v>0.978545865537696</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.89047619047619</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>107.215</v>
+        <v>3.52</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.58513091216216</v>
+        <v>-0.0547937265598363</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.59025565838468</v>
+        <v>-0.106679585348516</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.85707855422962</v>
+        <v>-0.0134540132029695</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.41116533336022</v>
+        <v>-1.55663995908626</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4702,7 +4718,11 @@
           <t>Mana_1a</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4712,11 +4732,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,7 +4747,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4739,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.159</v>
+        <v>0.396</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0202261190586064</v>
+        <v>-0.0149809152765584</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.16850159935498</v>
+        <v>-0.0953559144288766</v>
       </c>
       <c r="M48" t="n">
-        <v>0.08770790156102749</v>
+        <v>0.0237795666139086</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.392055031180585</v>
+        <v>-3.78305941327232</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4803,7 +4823,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4814,7 +4834,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.114219904494338</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4826,19 +4846,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>107.215</v>
+        <v>101</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.67009602194787</v>
+        <v>-0.163022121776793</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.97883360354819</v>
+        <v>-8.10285965945539</v>
       </c>
       <c r="M49" t="n">
-        <v>0.51340368965807</v>
+        <v>3.91404161422312</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.5577074308146</v>
+        <v>-0.161408041363161</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4867,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4877,6 +4897,615 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0605298683720434</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.9488939727226759</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.70682001205949</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.14207298815176</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0108315517241379</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0403456923789009</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0010197259611784</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-2.5015131002628</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.006133030693106</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>105.215</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-2.01725923369002</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-3.26966560367449</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-1.03887687681279</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.91727342459728</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.159</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0505575595443562</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.073669170736077</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.186265974718022</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.979987585663039</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.292035183472753</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0034349529780564</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.0129711506913096</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.008393102535202999</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.773638058120816</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.09910530951942099</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>106.43</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.30493464543269</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-2.36120919661327</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.353564253355164</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.22609663199539</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.937344444305288</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.159</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.08009868421052641</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.0095519238707053</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.146293429841733</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.55260097326083</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
+++ b/trend_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,55 +139,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -575,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.26094988910842</v>
+        <v>0.437171360103745</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.888888888888889</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43.75</v>
+        <v>43.25</v>
       </c>
       <c r="K2">
-        <v>3.43343055522541</v>
+        <v>0.5218378980755221</v>
       </c>
       <c r="L2">
-        <v>-5.8406175597531</v>
+        <v>-8.978157736047651</v>
       </c>
       <c r="M2">
-        <v>14.5856936961017</v>
+        <v>19.7247565796771</v>
       </c>
       <c r="N2">
-        <v>7.84784126908665</v>
+        <v>1.20656161404745</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -740,31 +740,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.036717316916924</v>
+        <v>0.000346111381273</v>
       </c>
       <c r="G3">
-        <v>0.0566037735849057</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H3">
-        <v>0.660377358490566</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>1.125</v>
       </c>
       <c r="K3">
-        <v>-0.207554655711538</v>
+        <v>-0.422118780096308</v>
       </c>
       <c r="L3">
-        <v>-0.427768164127418</v>
+        <v>-0.595743385923631</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.25041675717225</v>
       </c>
       <c r="N3">
-        <v>-15.9657427470414</v>
+        <v>-37.5216693418941</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -808,34 +808,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.306715686477583</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.07</v>
+        <v>10.13</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.0200686813186812</v>
       </c>
       <c r="L4">
-        <v>-0.111157021286398</v>
+        <v>-0.110377747252747</v>
       </c>
       <c r="M4">
-        <v>0.117087106615637</v>
+        <v>0.117329441833419</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-0.198111365436142</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -882,10 +882,10 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0018252172022209</v>
+        <v>0.227400484503121</v>
       </c>
       <c r="G5">
-        <v>0.0344827586206897</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H5">
         <v>0.5</v>
@@ -894,19 +894,19 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="K5">
-        <v>0.0020068681318681</v>
+        <v>0.0007518873230678</v>
       </c>
       <c r="L5">
-        <v>0.0014691853821466</v>
+        <v>-0.0010042471979397</v>
       </c>
       <c r="M5">
-        <v>0.0030779722168595</v>
+        <v>0.0020069328356904</v>
       </c>
       <c r="N5">
-        <v>11.1492673992674</v>
+        <v>4.29649898895931</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -947,43 +947,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.328919097166346</v>
+        <v>0.248758888064994</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H6">
-        <v>0.827586206896552</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>113.5</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>5.11733800350263</v>
+        <v>13.6814500426758</v>
       </c>
       <c r="L6">
-        <v>-16.4009627310783</v>
+        <v>-17.2702854149516</v>
       </c>
       <c r="M6">
-        <v>25.4205855017092</v>
+        <v>28.3141947161672</v>
       </c>
       <c r="N6">
-        <v>4.50866784449571</v>
+        <v>13.6814500426758</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1864903</v>
@@ -1021,31 +1021,31 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.253340437533195</v>
+        <v>0.431297811955217</v>
       </c>
       <c r="G7">
-        <v>0.473684210526316</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="H7">
-        <v>0.631578947368421</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0102313749603842</v>
+        <v>0.0101494832795865</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-8.83385319534693E-05</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0003248945423633</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1092,28 +1092,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>0.918959397199258</v>
+        <v>0.96182004525739</v>
       </c>
       <c r="G8">
-        <v>0.310344827586207</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="H8">
-        <v>0.137931034482759</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0004920252186774</v>
+        <v>-0.000486095324665</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1166,37 +1166,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0298729638864803</v>
+        <v>0.0550058213272618</v>
       </c>
       <c r="G9">
-        <v>0.137931034482759</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H9">
-        <v>0.775862068965517</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.397</v>
+        <v>0.387</v>
       </c>
       <c r="K9">
-        <v>0.0230339444390196</v>
+        <v>0.0147234344602766</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0497729722542319</v>
+        <v>0.0450622942360513</v>
       </c>
       <c r="N9">
-        <v>5.80200111814096</v>
+        <v>3.80450502849524</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1864903</v>
@@ -1237,37 +1237,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0021236269723909</v>
+        <v>0.02288717534261</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.689655172413793</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.16</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K10">
-        <v>-0.0477971646673941</v>
+        <v>-0.0357745006600471</v>
       </c>
       <c r="L10">
-        <v>-0.0767402911843631</v>
+        <v>-0.063016435646656</v>
       </c>
       <c r="M10">
-        <v>-0.020866442174209</v>
+        <v>-0.0063247833158615</v>
       </c>
       <c r="N10">
-        <v>-0.585749567002378</v>
+        <v>-0.441115914427215</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1864903</v>
@@ -1305,37 +1305,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0226760957164045</v>
+        <v>0.0187067217508228</v>
       </c>
       <c r="G11">
         <v>0.0172413793103448</v>
       </c>
       <c r="H11">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.4105</v>
+        <v>0.4005</v>
       </c>
       <c r="K11">
-        <v>0.0236045918367347</v>
+        <v>0.0150061175431711</v>
       </c>
       <c r="L11">
-        <v>0.0027115181222005</v>
+        <v>0.0014932172192279</v>
       </c>
       <c r="M11">
-        <v>0.0563574220828746</v>
+        <v>0.0484754586357526</v>
       </c>
       <c r="N11">
-        <v>5.75020507594023</v>
+        <v>3.74684582850714</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1864903</v>
@@ -1376,37 +1376,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.06856179089972129</v>
+        <v>0.0380207379151217</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.775862068965517</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.605</v>
+        <v>0.59</v>
       </c>
       <c r="K12">
-        <v>0.0575377361402642</v>
+        <v>0.0529723565907777</v>
       </c>
       <c r="L12">
-        <v>-0.0003180980696373</v>
+        <v>0.0058494605802096</v>
       </c>
       <c r="M12">
-        <v>0.110630943994623</v>
+        <v>0.0918382538250668</v>
       </c>
       <c r="N12">
-        <v>9.51036960996103</v>
+        <v>8.978365523860621</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1864903</v>
@@ -1441,37 +1441,37 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0030475358057765</v>
+        <v>0.129640364171263</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.655172413793103</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.029</v>
+        <v>0.0295</v>
       </c>
       <c r="K13">
-        <v>0.0057176809040016</v>
+        <v>0.0018769270298047</v>
       </c>
       <c r="L13">
-        <v>0.0026109542122253</v>
+        <v>-0.0007861903148051</v>
       </c>
       <c r="M13">
-        <v>0.008180712663911901</v>
+        <v>0.0060339701821174</v>
       </c>
       <c r="N13">
-        <v>19.7161410482816</v>
+        <v>6.36246450781264</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
@@ -1518,37 +1518,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.0607942317438832</v>
+        <v>0.0002652281736915</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.879310344827586</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.825</v>
+        <v>2.475</v>
       </c>
       <c r="K14">
-        <v>0.392719607694937</v>
+        <v>0.727124391157737</v>
       </c>
       <c r="L14">
-        <v>-0.0350033909935179</v>
+        <v>0.162008326409676</v>
       </c>
       <c r="M14">
-        <v>1.49981102565418</v>
+        <v>1.73047245496318</v>
       </c>
       <c r="N14">
-        <v>13.9015790334491</v>
+        <v>29.3787632791005</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1864903</v>
@@ -1589,37 +1589,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0675865317707193</v>
+        <v>0.0492300231165822</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.741176470588235</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>32.5</v>
+        <v>31.25</v>
       </c>
       <c r="K15">
-        <v>1.17817220200182</v>
+        <v>1.7920755362848</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0033156835675116</v>
       </c>
       <c r="M15">
-        <v>2.91450002642797</v>
+        <v>3.95859516860198</v>
       </c>
       <c r="N15">
-        <v>3.62514523692868</v>
+        <v>5.73464171611136</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1864903</v>
@@ -1660,37 +1660,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.999092913012852</v>
+        <v>0.9773131259632321</v>
       </c>
       <c r="G16">
-        <v>0.0357142857142857</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="H16">
-        <v>0.666666666666667</v>
+        <v>0.6590909090909089</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.4575</v>
+        <v>0.415</v>
       </c>
       <c r="K16">
-        <v>0.103780284657687</v>
+        <v>0.0424387715271827</v>
       </c>
       <c r="L16">
-        <v>0.0343739346190591</v>
+        <v>0.0049837947926554</v>
       </c>
       <c r="M16">
-        <v>0.208197947664217</v>
+        <v>0.129899193515974</v>
       </c>
       <c r="N16">
-        <v>22.6842152257239</v>
+        <v>10.22621000655</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1864903</v>
@@ -1731,31 +1731,31 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.906720965073156</v>
+        <v>0.728197267985387</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.855932203389831</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>10.045</v>
       </c>
       <c r="K17">
-        <v>0.0245746435560527</v>
+        <v>0.0144448400383242</v>
       </c>
       <c r="L17">
-        <v>-0.0101849023746237</v>
+        <v>-0.02035730278166</v>
       </c>
       <c r="M17">
-        <v>0.0615961446294837</v>
+        <v>0.0432250383991666</v>
       </c>
       <c r="N17">
-        <v>0.245746435560527</v>
+        <v>0.143801294557732</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
@@ -1802,13 +1802,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.175815326320456</v>
+        <v>0.80258513452993</v>
       </c>
       <c r="G18">
-        <v>0.0169491525423729</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H18">
-        <v>0.288135593220339</v>
+        <v>0.296610169491525</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1817,22 +1817,22 @@
         <v>0.019</v>
       </c>
       <c r="K18">
-        <v>0.0003090728553913</v>
+        <v>-0.0002358473553322</v>
       </c>
       <c r="L18">
-        <v>-0.000196039440439</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="M18">
-        <v>0.000668956043956</v>
+        <v>0.0002833355027216</v>
       </c>
       <c r="N18">
-        <v>1.62669923890196</v>
+        <v>-1.24130187016967</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1864903</v>
@@ -1873,37 +1873,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.607256825838166</v>
+        <v>0.617611789485253</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H19">
-        <v>0.703389830508475</v>
+        <v>0.709401709401709</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>120</v>
+        <v>116.8</v>
       </c>
       <c r="K19">
-        <v>-1.14930774071743</v>
+        <v>-1.18506373534569</v>
       </c>
       <c r="L19">
-        <v>-7.99693136904862</v>
+        <v>-7.71344518652119</v>
       </c>
       <c r="M19">
-        <v>5.95760214891226</v>
+        <v>5.23887159651883</v>
       </c>
       <c r="N19">
-        <v>-0.95775645059786</v>
+        <v>-1.0146093624535</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <v>1864903</v>
@@ -1941,40 +1941,40 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0151279819130489</v>
+        <v>0.0678451575179243</v>
       </c>
       <c r="G20">
-        <v>0.612068965517241</v>
+        <v>0.582608695652174</v>
       </c>
       <c r="H20">
-        <v>0.543103448275862</v>
+        <v>0.573913043478261</v>
       </c>
       <c r="I20">
         <v>22</v>
       </c>
       <c r="J20">
-        <v>0.0062884858770171</v>
+        <v>0.0071178618456263</v>
       </c>
       <c r="K20">
-        <v>9.501479556621601E-06</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0003707202977791</v>
+        <v>0.0001166695801556</v>
       </c>
       <c r="N20">
-        <v>0.151093279724888</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1864903</v>
@@ -2012,16 +2012,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>0.979714706701257</v>
+        <v>0.99630901685392</v>
       </c>
       <c r="G21">
-        <v>0.254237288135593</v>
+        <v>0.313559322033898</v>
       </c>
       <c r="H21">
-        <v>0.110169491525424</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0002496582365003</v>
+        <v>-0.0002852072600127</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2083,31 +2083,31 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>0.478414522136544</v>
+        <v>0.607317271538834</v>
       </c>
       <c r="G22">
-        <v>0.135593220338983</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="H22">
-        <v>0.779661016949153</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.3872</v>
+        <v>0.375</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>-0.0036441655983642</v>
+        <v>-0.0034823301728315</v>
       </c>
       <c r="M22">
-        <v>0.0025085851648351</v>
+        <v>0.0014335471401141</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1864903</v>
@@ -2157,13 +2157,13 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.066892369029821</v>
+        <v>0.007425468943682</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.512820512820513</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>8.140000000000001</v>
       </c>
       <c r="K23">
-        <v>-0.009952316076294401</v>
+        <v>-0.0128133156040814</v>
       </c>
       <c r="L23">
-        <v>-0.0199726589200274</v>
+        <v>-0.0200686813186811</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.0058899071315816</v>
       </c>
       <c r="N23">
-        <v>-0.122264325261602</v>
+        <v>-0.15741173960788</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
@@ -2222,34 +2222,34 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>0.325602330215704</v>
+        <v>0.385020333697254</v>
       </c>
       <c r="G24">
         <v>0.0508474576271186</v>
       </c>
       <c r="H24">
-        <v>0.855932203389831</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>0.401</v>
+        <v>0.3875</v>
       </c>
       <c r="K24">
-        <v>0.0008329994050535</v>
+        <v>0.0005013310849125</v>
       </c>
       <c r="L24">
-        <v>-0.0030350664123406</v>
+        <v>-0.0034649456798943</v>
       </c>
       <c r="M24">
-        <v>0.0050171703296703</v>
+        <v>0.0037148851156397</v>
       </c>
       <c r="N24">
-        <v>0.207730524951009</v>
+        <v>0.129375763848388</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
@@ -2296,37 +2296,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.754410500492973</v>
+        <v>0.644567894220806</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.73728813559322</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.635</v>
+        <v>0.605</v>
       </c>
       <c r="K25">
-        <v>-0.0025086431493754</v>
+        <v>-0.0017358255968169</v>
       </c>
       <c r="L25">
-        <v>-0.0120434544481312</v>
+        <v>-0.0079985752380426</v>
       </c>
       <c r="M25">
         <v>0.0059975369458128</v>
       </c>
       <c r="N25">
-        <v>-0.395061913287467</v>
+        <v>-0.286913321787929</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1864903</v>
@@ -2367,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.220881643707711</v>
+        <v>0.345602486249494</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.508474576271186</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2382,16 +2382,16 @@
         <v>0.0315</v>
       </c>
       <c r="K26">
-        <v>0.0003339437120387</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L26">
-        <v>-0.0004292709303822</v>
+        <v>-0.0006662711754465</v>
       </c>
       <c r="M26">
-        <v>0.0017926403146508</v>
+        <v>0.0012122137446674</v>
       </c>
       <c r="N26">
-        <v>1.06013876837701</v>
+        <v>0.792565830159816</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
@@ -2438,7 +2438,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.552522460519809</v>
+        <v>0.177675863532439</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2450,25 +2450,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3.36</v>
+        <v>2.905</v>
       </c>
       <c r="K27">
-        <v>-0.021268961301856</v>
+        <v>0.0550330039468051</v>
       </c>
       <c r="L27">
-        <v>-0.159267187569548</v>
+        <v>-0.0475273125892185</v>
       </c>
       <c r="M27">
-        <v>0.121115449151473</v>
+        <v>0.195493211645622</v>
       </c>
       <c r="N27">
-        <v>-0.633004800650476</v>
+        <v>1.89442354377987</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1864903</v>
@@ -2509,13 +2509,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>2.04555153665107E-06</v>
+        <v>3.89058016063257E-06</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.718518518518519</v>
+        <v>0.720930232558139</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>22</v>
       </c>
       <c r="K28">
-        <v>1.97918719211823</v>
+        <v>1.67239010989011</v>
       </c>
       <c r="L28">
-        <v>1.03056399156279</v>
+        <v>0.955602476395683</v>
       </c>
       <c r="M28">
-        <v>2.91241631213953</v>
+        <v>2.35962964093047</v>
       </c>
       <c r="N28">
-        <v>8.99630541871921</v>
+        <v>7.60177322677323</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1864903</v>
@@ -2577,40 +2577,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.47251155515577</v>
+        <v>0.385802782971017</v>
       </c>
       <c r="G29">
-        <v>0.046875</v>
+        <v>0.040983606557377</v>
       </c>
       <c r="H29">
-        <v>0.546875</v>
+        <v>0.565573770491803</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-0.0028435188789412</v>
       </c>
       <c r="L29">
-        <v>-0.0206578303744558</v>
+        <v>-0.0205554142035974</v>
       </c>
       <c r="M29">
-        <v>0.0223896277202624</v>
+        <v>0.016643880611523</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-0.568703775788244</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1864903</v>
@@ -2651,37 +2651,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.113037927926663</v>
+        <v>0.366325629026881</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.810344827586207</v>
+        <v>0.805714285714286</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.07</v>
+        <v>10.06</v>
       </c>
       <c r="K30">
-        <v>-0.017476076555024</v>
+        <v>-0.0049693877551019</v>
       </c>
       <c r="L30">
-        <v>-0.0398477293706483</v>
+        <v>-0.0236203293272496</v>
       </c>
       <c r="M30">
-        <v>0.0061858298809723</v>
+        <v>0.0179684463443758</v>
       </c>
       <c r="N30">
-        <v>-0.173545943942641</v>
+        <v>-0.0493974925954467</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1864903</v>
@@ -2719,13 +2719,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.354177606377672</v>
+        <v>0.553555177916809</v>
       </c>
       <c r="G31">
-        <v>0.0228571428571429</v>
+        <v>0.0342857142857143</v>
       </c>
       <c r="H31">
         <v>0.205714285714286</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0001664208541526</v>
+        <v>-0.0002222626099119</v>
       </c>
       <c r="M31">
-        <v>0.0002502624258694</v>
+        <v>0.0001739183838266</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1864903</v>
@@ -2787,43 +2787,43 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.995937454027113</v>
+        <v>0.932903974054223</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H32">
-        <v>0.708571428571429</v>
+        <v>0.718390804597701</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K32">
-        <v>-7.609375</v>
+        <v>-4.29412166780588</v>
       </c>
       <c r="L32">
-        <v>-12.8012140521274</v>
+        <v>-8.95176543654228</v>
       </c>
       <c r="M32">
-        <v>-2.94809320940706</v>
+        <v>0.180320484072973</v>
       </c>
       <c r="N32">
-        <v>-5.07291666666667</v>
+        <v>-3.18083086504139</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q32">
         <v>1864903</v>
@@ -2861,28 +2861,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.9415014844758131</v>
+        <v>0.928209394955404</v>
       </c>
       <c r="G33">
-        <v>0.531791907514451</v>
+        <v>0.5406976744186049</v>
       </c>
       <c r="H33">
-        <v>0.566473988439306</v>
+        <v>0.558139534883721</v>
       </c>
       <c r="I33">
         <v>22</v>
       </c>
       <c r="J33">
-        <v>0.007523562322822</v>
+        <v>0.0072512823245743</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-1.03179697650257E-05</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q33">
         <v>1864903</v>
@@ -2932,16 +2932,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>0.8310039855638069</v>
+        <v>0.951659850349023</v>
       </c>
       <c r="G34">
-        <v>0.296969696969697</v>
+        <v>0.314285714285714</v>
       </c>
       <c r="H34">
-        <v>0.096969696969697</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-5.08595534410916E-05</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1864903</v>
@@ -3006,31 +3006,31 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.970478234429496</v>
+        <v>0.9988428513200041</v>
       </c>
       <c r="G35">
-        <v>0.127272727272727</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H35">
-        <v>0.763636363636364</v>
+        <v>0.754285714285714</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="K35">
-        <v>-0.003777956674473</v>
+        <v>-0.0063613449848024</v>
       </c>
       <c r="L35">
-        <v>-0.0098948063277506</v>
+        <v>-0.0104402655445257</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.0012501948129359</v>
       </c>
       <c r="N35">
-        <v>-0.961312130909178</v>
+        <v>-1.63111409866729</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
@@ -3074,16 +3074,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F36">
-        <v>0.944031081067743</v>
+        <v>0.530141114371218</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.459770114942529</v>
+        <v>0.445086705202312</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3092,22 +3092,22 @@
         <v>8.130000000000001</v>
       </c>
       <c r="K36">
-        <v>0.0060206043956042</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0050171703296702</v>
       </c>
       <c r="M36">
-        <v>0.0139592253198854</v>
+        <v>0.0064329745596869</v>
       </c>
       <c r="N36">
-        <v>0.0740541746076786</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q36">
         <v>1864903</v>
@@ -3145,31 +3145,31 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.986751909044288</v>
+        <v>0.997070526814417</v>
       </c>
       <c r="G37">
         <v>0.0342857142857143</v>
       </c>
       <c r="H37">
-        <v>0.845714285714286</v>
+        <v>0.834285714285714</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="K37">
-        <v>-0.0050034246575342</v>
+        <v>-0.0059975369458127</v>
       </c>
       <c r="L37">
-        <v>-0.0108039488897063</v>
+        <v>-0.0110925985120346</v>
       </c>
       <c r="M37">
-        <v>-0.0004972964066074</v>
+        <v>-0.0016698182969794</v>
       </c>
       <c r="N37">
-        <v>-1.20564449579139</v>
+        <v>-1.46281388922263</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
@@ -3216,37 +3216,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.999608449864877</v>
+        <v>0.99996157769379</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.6914285714285709</v>
+        <v>0.674285714285714</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="K38">
-        <v>-0.009986329460013601</v>
+        <v>-0.0118652641878669</v>
       </c>
       <c r="L38">
-        <v>-0.0169245740363245</v>
+        <v>-0.019723000683527</v>
       </c>
       <c r="M38">
-        <v>-0.0054462438344511</v>
+        <v>-0.006474985789998</v>
       </c>
       <c r="N38">
-        <v>-1.51308022121419</v>
+        <v>-1.82542525967184</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q38">
         <v>1864903</v>
@@ -3284,40 +3284,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>0.672371146127443</v>
+        <v>0.57086423034994</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.428571428571429</v>
+        <v>0.445714285714286</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="K39">
-        <v>-0.0001661737943585</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0006913713841359</v>
+        <v>-0.0006334745423918</v>
       </c>
       <c r="M39">
-        <v>0.0003228784360222</v>
+        <v>0.0004211751641968</v>
       </c>
       <c r="N39">
-        <v>-0.503556952601537</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q39">
         <v>1864903</v>
@@ -3358,13 +3358,13 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.938720286539692</v>
+        <v>0.864050592480443</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.908571428571429</v>
+        <v>0.902857142857143</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>3.44</v>
       </c>
       <c r="K40">
-        <v>-0.0553546583850931</v>
+        <v>-0.0432971124620061</v>
       </c>
       <c r="L40">
-        <v>-0.127633801929983</v>
+        <v>-0.11149156956119</v>
       </c>
       <c r="M40">
-        <v>0.0016070970153432</v>
+        <v>0.024708680386922</v>
       </c>
       <c r="N40">
-        <v>-1.60914704607829</v>
+        <v>-1.2586369901746</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1864903</v>
@@ -3429,37 +3429,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.121062220556551</v>
+        <v>0.024330764355931</v>
       </c>
       <c r="G41">
-        <v>0.0384615384615385</v>
+        <v>0.0372670807453416</v>
       </c>
       <c r="H41">
-        <v>0.5064102564102561</v>
+        <v>0.496894409937888</v>
       </c>
       <c r="I41">
         <v>4</v>
       </c>
       <c r="J41">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="K41">
-        <v>-0.0124829118250171</v>
+        <v>-0.0157545616903242</v>
       </c>
       <c r="L41">
-        <v>-0.0333742492031667</v>
+        <v>-0.0355330025450472</v>
       </c>
       <c r="M41">
-        <v>0.0030141972404812</v>
+        <v>-0.0024927182669215</v>
       </c>
       <c r="N41">
-        <v>-1.56036397812713</v>
+        <v>-2.38705480156427</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q41">
         <v>1864903</v>
@@ -3488,7 +3488,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3497,40 +3497,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.586082098785888</v>
+        <v>0.005134183546607</v>
       </c>
       <c r="G42">
-        <v>0.019047619047619</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.204761904761905</v>
+        <v>0.802030456852792</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.019</v>
+        <v>10.2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.0326226916957072</v>
       </c>
       <c r="L42">
-        <v>-0.0002053408887515</v>
+        <v>-0.0541807807893098</v>
       </c>
       <c r="M42">
-        <v>0.0001113504568045</v>
+        <v>-0.0129678772922926</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.319830310742228</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q42">
         <v>1864903</v>
@@ -3551,7 +3551,7 @@
         <v>61</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,49 +3559,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.999890792579098</v>
+        <v>0.92130416554838</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="H43">
-        <v>0.70952380952381</v>
+        <v>0.193693693693694</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>177.5</v>
+        <v>0.019</v>
       </c>
       <c r="K43">
-        <v>-8.970166032514699</v>
+        <v>-0.0001254723462727</v>
       </c>
       <c r="L43">
-        <v>-13.4622306158371</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="M43">
-        <v>-4.89622031602269</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>-5.05361466620547</v>
+        <v>-0.660380769856623</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q43">
         <v>1864903</v>
@@ -3622,7 +3622,7 @@
         <v>61</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,7 +3630,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3639,40 +3639,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.938822495136757</v>
+        <v>0.999938875245173</v>
       </c>
       <c r="G44">
-        <v>0.526570048309179</v>
+        <v>0.004524886877828</v>
       </c>
       <c r="H44">
-        <v>0.541062801932367</v>
+        <v>0.723981900452489</v>
       </c>
       <c r="I44">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0.008277069981600001</v>
+        <v>170</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-8.616077100461879</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-12.4922317234097</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>-4.76556685460556</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-5.06828064733052</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1864903</v>
@@ -3693,7 +3693,7 @@
         <v>61</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,49 +3701,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.992304584975076</v>
+        <v>0.948375724226714</v>
       </c>
       <c r="G45">
-        <v>0.119791666666667</v>
+        <v>0.527522935779816</v>
       </c>
       <c r="H45">
-        <v>0.776041666666667</v>
+        <v>0.532110091743119</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J45">
-        <v>0.3985</v>
+        <v>0.0081975575440561</v>
       </c>
       <c r="K45">
-        <v>-0.0037652625838118</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0080832460231526</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>-0.0006483113905283</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-0.944858866703106</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q45">
         <v>1864903</v>
@@ -3772,7 +3772,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,37 +3784,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.995348621298993</v>
+        <v>0.999603231804707</v>
       </c>
       <c r="G46">
-        <v>0.0380952380952381</v>
+        <v>0.132352941176471</v>
       </c>
       <c r="H46">
-        <v>0.8142857142857139</v>
+        <v>0.7696078431372551</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0.418</v>
+        <v>0.393</v>
       </c>
       <c r="K46">
-        <v>-0.0040027397260274</v>
+        <v>-0.0049641270432846</v>
       </c>
       <c r="L46">
-        <v>-0.0074537753557133</v>
+        <v>-0.008235051354523499</v>
       </c>
       <c r="M46">
-        <v>-0.0010166714737662</v>
+        <v>-0.0018781916210579</v>
       </c>
       <c r="N46">
-        <v>-0.957593235891722</v>
+        <v>-1.26313665223527</v>
       </c>
       <c r="O46" t="s">
         <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q46">
         <v>1864903</v>
@@ -3835,7 +3835,7 @@
         <v>61</v>
       </c>
       <c r="W46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3843,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -3855,37 +3855,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.978545865537696</v>
+        <v>0.8790661677288401</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.89047619047619</v>
+        <v>0.436893203883495</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3.52</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K47">
-        <v>-0.0547937265598363</v>
+        <v>0.004442079659471</v>
       </c>
       <c r="L47">
-        <v>-0.106679585348516</v>
+        <v>-0.0012320409985259</v>
       </c>
       <c r="M47">
-        <v>-0.0134540132029695</v>
+        <v>0.0099704276615102</v>
       </c>
       <c r="N47">
-        <v>-1.55663995908626</v>
+        <v>0.0547054145255058</v>
       </c>
       <c r="O47" t="s">
         <v>43</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q47">
         <v>1864903</v>
@@ -3904,9 +3904,6 @@
       </c>
       <c r="V47" t="s">
         <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3914,49 +3911,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.231216363225238</v>
+        <v>0.999657859499265</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.036036036036036</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.806306306306306</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>0.396</v>
+        <v>0.4115</v>
       </c>
       <c r="K48">
-        <v>-0.0149809152765584</v>
+        <v>-0.0046876183463075</v>
       </c>
       <c r="L48">
-        <v>-0.0953559144288766</v>
+        <v>-0.0077656031869234</v>
       </c>
       <c r="M48">
-        <v>0.0237795666139086</v>
+        <v>-0.0020177879569212</v>
       </c>
       <c r="N48">
-        <v>-3.78305941327232</v>
+        <v>-1.13915391161788</v>
       </c>
       <c r="O48" t="s">
         <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>1864903</v>
@@ -3976,55 +3973,58 @@
       <c r="V48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0.999557886757793</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.623809523809524</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>101</v>
+        <v>0.65</v>
       </c>
       <c r="K49">
-        <v>-0.163022121776793</v>
+        <v>-0.0071477495107632</v>
       </c>
       <c r="L49">
-        <v>-8.10285965945539</v>
+        <v>-0.0114024526791775</v>
       </c>
       <c r="M49">
-        <v>3.91404161422312</v>
+        <v>-0.0034476139939696</v>
       </c>
       <c r="N49">
-        <v>-0.161408041363161</v>
+        <v>-1.09965377088665</v>
       </c>
       <c r="O49" t="s">
         <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q49">
         <v>1864903</v>
@@ -4044,49 +4044,52 @@
       <c r="V49" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.59675202974633</v>
+        <v>0.72337269253237</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>5.3</v>
+        <v>0.0325</v>
       </c>
       <c r="K50">
-        <v>0.0605298683720434</v>
+        <v>-0.0001429549902152</v>
       </c>
       <c r="L50">
-        <v>-0.9488939727226759</v>
+        <v>-0.0005715729852195</v>
       </c>
       <c r="M50">
-        <v>0.70682001205949</v>
+        <v>0.000181806869089</v>
       </c>
       <c r="N50">
-        <v>1.14207298815176</v>
+        <v>-0.439861508354659</v>
       </c>
       <c r="O50" t="s">
         <v>43</v>
@@ -4112,55 +4115,58 @@
       <c r="V50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.036819135060151</v>
+        <v>0.9600343420276251</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.882882882882883</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.433</v>
+        <v>3.52</v>
       </c>
       <c r="K51">
-        <v>-0.0108315517241379</v>
+        <v>-0.0454412284144427</v>
       </c>
       <c r="L51">
-        <v>-0.0403456923789009</v>
+        <v>-0.0914281399013295</v>
       </c>
       <c r="M51">
-        <v>-0.0010197259611784</v>
+        <v>-0.0024910148156539</v>
       </c>
       <c r="N51">
-        <v>-2.5015131002628</v>
+        <v>-1.29094398904667</v>
       </c>
       <c r="O51" t="s">
         <v>43</v>
       </c>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q51">
         <v>1864903</v>
@@ -4180,16 +4186,19 @@
       <c r="V51" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4198,7 +4207,7 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.006133030693106</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4210,25 +4219,25 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>105.215</v>
+        <v>0.396</v>
       </c>
       <c r="K52">
-        <v>-2.01725923369002</v>
+        <v>0.0366636129353502</v>
       </c>
       <c r="L52">
-        <v>-3.26966560367449</v>
+        <v>-0.0544266205354074</v>
       </c>
       <c r="M52">
-        <v>-1.03887687681279</v>
+        <v>0.07970364827496421</v>
       </c>
       <c r="N52">
-        <v>-1.91727342459728</v>
+        <v>9.25848811498742</v>
       </c>
       <c r="O52" t="s">
         <v>43</v>
       </c>
       <c r="P52" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q52">
         <v>1864903</v>
@@ -4249,15 +4258,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4266,7 +4275,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.8144533152386511</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4278,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.159</v>
+        <v>102.11</v>
       </c>
       <c r="K53">
-        <v>0.0505575595443562</v>
+        <v>4.08577805695609</v>
       </c>
       <c r="L53">
-        <v>-0.073669170736077</v>
+        <v>-6.79593854717882</v>
       </c>
       <c r="M53">
-        <v>0.186265974718022</v>
+        <v>7.98204965810707</v>
       </c>
       <c r="N53">
-        <v>0.979987585663039</v>
+        <v>4.00134958080119</v>
       </c>
       <c r="O53" t="s">
         <v>43</v>
       </c>
       <c r="P53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q53">
         <v>1864903</v>
@@ -4317,15 +4326,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4334,7 +4343,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.292035183472753</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4346,25 +4355,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.444</v>
+        <v>5.3</v>
       </c>
       <c r="K54">
-        <v>-0.0034349529780564</v>
+        <v>0.29995693505523</v>
       </c>
       <c r="L54">
-        <v>-0.0129711506913096</v>
+        <v>-0.632413248001505</v>
       </c>
       <c r="M54">
-        <v>0.008393102535202999</v>
+        <v>0.70682001205949</v>
       </c>
       <c r="N54">
-        <v>-0.773638058120816</v>
+        <v>5.65956481236283</v>
       </c>
       <c r="O54" t="s">
         <v>43</v>
       </c>
       <c r="P54" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q54">
         <v>1864903</v>
@@ -4385,15 +4394,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4402,7 +4411,7 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.09910530951942099</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4414,25 +4423,25 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>106.43</v>
+        <v>0.433</v>
       </c>
       <c r="K55">
-        <v>-1.30493464543269</v>
+        <v>-0.0083708938120702</v>
       </c>
       <c r="L55">
-        <v>-2.36120919661327</v>
+        <v>-0.0377495476428164</v>
       </c>
       <c r="M55">
-        <v>0.353564253355164</v>
+        <v>0.0125328823510887</v>
       </c>
       <c r="N55">
-        <v>-1.22609663199539</v>
+        <v>-1.93323182726796</v>
       </c>
       <c r="O55" t="s">
         <v>43</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q55">
         <v>1864903</v>
@@ -4453,15 +4462,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4470,7 +4479,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.937344444305288</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4482,42 +4491,314 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.159</v>
+        <v>105.215</v>
       </c>
       <c r="K56">
-        <v>0.08009868421052641</v>
+        <v>-1.14375966494846</v>
       </c>
       <c r="L56">
-        <v>-0.0095519238707053</v>
+        <v>-3.13002073631359</v>
       </c>
       <c r="M56">
-        <v>0.146293429841733</v>
+        <v>0.228248231137686</v>
       </c>
       <c r="N56">
-        <v>1.55260097326083</v>
+        <v>-1.08706901577575</v>
       </c>
       <c r="O56" t="s">
         <v>43</v>
       </c>
       <c r="P56" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56">
+        <v>1864903</v>
+      </c>
+      <c r="R56">
+        <v>5540903</v>
+      </c>
+      <c r="S56" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56" t="s">
+        <v>59</v>
+      </c>
+      <c r="U56" t="s">
+        <v>60</v>
+      </c>
+      <c r="V56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.762862824616335</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.265</v>
+      </c>
+      <c r="K57">
+        <v>0.0652096213963181</v>
+      </c>
+      <c r="L57">
+        <v>-0.116447387356282</v>
+      </c>
+      <c r="M57">
+        <v>0.185471167207726</v>
+      </c>
+      <c r="N57">
+        <v>1.23854931427005</v>
+      </c>
+      <c r="O57" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57">
+        <v>1864903</v>
+      </c>
+      <c r="R57">
+        <v>5540903</v>
+      </c>
+      <c r="S57" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" t="s">
+        <v>59</v>
+      </c>
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="V57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.45</v>
+      </c>
+      <c r="K58">
+        <v>-0.0010071231617647</v>
+      </c>
+      <c r="L58">
+        <v>-0.009952822902441601</v>
+      </c>
+      <c r="M58">
+        <v>0.0103466856260455</v>
+      </c>
+      <c r="N58">
+        <v>-0.223805147058824</v>
+      </c>
+      <c r="O58" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q58">
+        <v>1864903</v>
+      </c>
+      <c r="R58">
+        <v>5540903</v>
+      </c>
+      <c r="S58" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58" t="s">
+        <v>59</v>
+      </c>
+      <c r="U58" t="s">
+        <v>60</v>
+      </c>
+      <c r="V58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.056643604111177</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>108</v>
+      </c>
+      <c r="K59">
+        <v>-1.32629959986662</v>
+      </c>
+      <c r="L59">
+        <v>-2.36120919661327</v>
+      </c>
+      <c r="M59">
+        <v>-0.364960237449167</v>
+      </c>
+      <c r="N59">
+        <v>-1.22805518506169</v>
+      </c>
+      <c r="O59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59">
+        <v>1864903</v>
+      </c>
+      <c r="R59">
+        <v>5540903</v>
+      </c>
+      <c r="S59" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59" t="s">
+        <v>59</v>
+      </c>
+      <c r="U59" t="s">
+        <v>60</v>
+      </c>
+      <c r="V59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.962587696448458</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.23</v>
+      </c>
+      <c r="K60">
+        <v>0.08172260273972611</v>
+      </c>
+      <c r="L60">
+        <v>0.0036750162620099</v>
+      </c>
+      <c r="M60">
+        <v>0.133399888965337</v>
+      </c>
+      <c r="N60">
+        <v>1.56257366615155</v>
+      </c>
+      <c r="O60" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" t="s">
         <v>48</v>
       </c>
-      <c r="Q56">
-        <v>1864903</v>
-      </c>
-      <c r="R56">
-        <v>5540903</v>
-      </c>
-      <c r="S56" t="s">
-        <v>58</v>
-      </c>
-      <c r="T56" t="s">
-        <v>59</v>
-      </c>
-      <c r="U56" t="s">
-        <v>60</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="Q60">
+        <v>1864903</v>
+      </c>
+      <c r="R60">
+        <v>5540903</v>
+      </c>
+      <c r="S60" t="s">
+        <v>58</v>
+      </c>
+      <c r="T60" t="s">
+        <v>59</v>
+      </c>
+      <c r="U60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V60" t="s">
         <v>61</v>
       </c>
     </row>
